--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>955826.3078507695</v>
+        <v>926182.1899071914</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4976754.983908111</v>
+        <v>3754556.370457225</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493494.951020051</v>
+        <v>10057875.89654494</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.17289288835308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>78.78083674901936</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851181</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.3724651321509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.40636597973747</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>61.36917500887078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>91.61745183476951</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>238.6591887249613</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>386.0531312245766</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2391485592449</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>107.070495690909</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>237.1597475789926</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9504068351033</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.91073356940661</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>111.8048680106007</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>210.0946544764306</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>96.32693285396928</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>98.29688457758968</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041371</v>
+        <v>354.4597957053223</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>141.4558507036724</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>115.0138334144184</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>167.3881951467276</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>22.03932652310334</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>91.14118257917578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.75194854349792</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>96.42577052959437</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4149465016521</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>228.5621729309667</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>22.03932652310334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>91.14118257917578</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.211388817362</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>89.5161773484112</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>156.9155538726609</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4149465016521</v>
+        <v>228.5621729309667</v>
       </c>
       <c r="H29" t="n">
-        <v>91.14118257917424</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22.03932652310334</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.3152795185868</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>89.5161773484112</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U31" t="n">
         <v>286.1994387321036</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>123.9847661592644</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>74.23323147103989</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I32" t="n">
         <v>22.03932652310334</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U32" t="n">
-        <v>69.10185605607215</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3077450743411771</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7984845780255</v>
+        <v>83.75894471098005</v>
       </c>
       <c r="H34" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.71085334059829</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>103.2415362262931</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H35" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>22.03932652310334</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.9546296267578</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.99900896229268</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I36" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>156.9155538726613</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.0897807969648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>22.53922592640283</v>
       </c>
       <c r="H38" t="n">
         <v>289.4177123989346</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T38" t="n">
         <v>201.6995444026096</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>11.08567950343569</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I39" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.94103149995623</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>151.6972896954767</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>89.5161773484112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.90195505146072</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9546296267578</v>
+        <v>9.796870260772153</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I42" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.0983285776099</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.13716316348905</v>
       </c>
       <c r="T43" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1994387321036</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H44" t="n">
-        <v>167.9388114225515</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>22.03932652310334</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>97.63953186650193</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>194.3352645142153</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>102.9948816536368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>89.5161773484112</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>126.7183159051389</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796274</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392158</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324653</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181855</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
         <v>312.3844025601599</v>
@@ -4640,58 +4640,58 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218345</v>
+        <v>105.3064255026253</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218345</v>
+        <v>105.3064255026253</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218345</v>
+        <v>105.3064255026253</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025399</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720659</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977095</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218345</v>
+        <v>576.3720603698256</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218345</v>
+        <v>286.954890332865</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218345</v>
+        <v>286.954890332865</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218345</v>
+        <v>286.954890332865</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>574.1274472283683</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>159.0549970733647</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3084.535934008201</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4953,61 +4953,61 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1253.238931622638</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>867.4506790243936</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>456.464774234786</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5047,10 +5047,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5074,19 +5074,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3079.909711953368</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>3079.909711953368</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>3079.909711953368</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,7 +5138,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>174.6641322815865</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5011820977088</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V13" t="n">
-        <v>66.51211643218342</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C14" t="n">
-        <v>1844.338003964587</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.072305357837</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.284052759593</v>
+        <v>763.1367659325592</v>
       </c>
       <c r="F14" t="n">
-        <v>689.2981479699852</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.542934265601</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.077176004521</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028709</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,7 +5375,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.0565485757129</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C16" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>718.1223384639945</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757129</v>
+        <v>718.1223384639945</v>
       </c>
       <c r="U16" t="n">
-        <v>831.0565485757129</v>
+        <v>718.1223384639945</v>
       </c>
       <c r="V16" t="n">
-        <v>831.0565485757129</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="W16" t="n">
-        <v>831.0565485757129</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X16" t="n">
-        <v>831.0565485757129</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.0565485757129</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2217.803762225666</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1848.841245285254</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1490.575546678504</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.78729408026</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>693.8013892906522</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>278.7289391356487</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.5429342656</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X17" t="n">
-        <v>2994.5429342656</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2604.403602289788</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.0175235133541</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C19" t="n">
-        <v>410.0175235133541</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D19" t="n">
-        <v>410.0175235133541</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7277411117484</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8377936138381</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W19" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X19" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.0175235133541</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>2288.135186201105</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097631</v>
+        <v>1919.172669260694</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490881</v>
+        <v>1560.906970653943</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926365</v>
+        <v>1175.118718055699</v>
       </c>
       <c r="F20" t="n">
-        <v>298.629863103029</v>
+        <v>764.1328132660913</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.6877057396768</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="C22" t="n">
-        <v>182.6877057396768</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>182.6877057396768</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>182.6877057396768</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>182.6877057396768</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5943,19 +5943,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812242</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X22" t="n">
-        <v>403.4802848832069</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.6877057396768</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2017.433561660081</v>
+        <v>2208.774492639708</v>
       </c>
       <c r="C23" t="n">
-        <v>1648.471044719669</v>
+        <v>1839.811975699296</v>
       </c>
       <c r="D23" t="n">
-        <v>1290.205346112919</v>
+        <v>1481.546277092546</v>
       </c>
       <c r="E23" t="n">
-        <v>904.4170935146744</v>
+        <v>1095.758024494302</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4311887250669</v>
+        <v>684.7721197046942</v>
       </c>
       <c r="G23" t="n">
-        <v>78.87063670319611</v>
+        <v>270.2115676828234</v>
       </c>
       <c r="H23" t="n">
-        <v>78.87063670319611</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I23" t="n">
         <v>78.87063670319611</v>
@@ -5992,10 +5992,10 @@
         <v>310.3318922270719</v>
       </c>
       <c r="K23" t="n">
-        <v>707.9708323625641</v>
+        <v>707.9708323625632</v>
       </c>
       <c r="L23" t="n">
-        <v>1238.17886109889</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M23" t="n">
         <v>1859.80689066217</v>
@@ -6007,7 +6007,7 @@
         <v>3083.612510848994</v>
       </c>
       <c r="P23" t="n">
-        <v>3550.533597954121</v>
+        <v>3550.53359795412</v>
       </c>
       <c r="Q23" t="n">
         <v>3852.999142367603</v>
@@ -6019,22 +6019,22 @@
         <v>3943.531835159805</v>
       </c>
       <c r="T23" t="n">
-        <v>3851.470034574779</v>
+        <v>3943.531835159805</v>
       </c>
       <c r="U23" t="n">
-        <v>3851.470034574779</v>
+        <v>3690.042310284292</v>
       </c>
       <c r="V23" t="n">
-        <v>3520.407147231208</v>
+        <v>3358.979422940722</v>
       </c>
       <c r="W23" t="n">
-        <v>3167.638491961094</v>
+        <v>3358.979422940722</v>
       </c>
       <c r="X23" t="n">
-        <v>2794.172733700014</v>
+        <v>2985.513664679642</v>
       </c>
       <c r="Y23" t="n">
-        <v>2404.033401724203</v>
+        <v>2595.37433270383</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>197.909527867881</v>
       </c>
       <c r="K24" t="n">
-        <v>238.5038221180931</v>
+        <v>479.5207778288763</v>
       </c>
       <c r="L24" t="n">
-        <v>663.4874418325835</v>
+        <v>904.5043975433666</v>
       </c>
       <c r="M24" t="n">
-        <v>1178.780149029315</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N24" t="n">
-        <v>1722.119765799986</v>
+        <v>1963.136721510769</v>
       </c>
       <c r="O24" t="n">
-        <v>2196.949569936166</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P24" t="n">
         <v>2558.709283247168</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="C25" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="D25" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="E25" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="F25" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="G25" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H25" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="I25" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J25" t="n">
-        <v>2893.783938995557</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K25" t="n">
-        <v>3018.24156305216</v>
+        <v>231.06208070166</v>
       </c>
       <c r="L25" t="n">
-        <v>3207.410270286582</v>
+        <v>420.2307879360819</v>
       </c>
       <c r="M25" t="n">
-        <v>3410.120431669547</v>
+        <v>622.9409493190469</v>
       </c>
       <c r="N25" t="n">
-        <v>3615.868124400261</v>
+        <v>828.6886420497617</v>
       </c>
       <c r="O25" t="n">
-        <v>3785.596330948522</v>
+        <v>998.4168485980224</v>
       </c>
       <c r="P25" t="n">
-        <v>3911.766161969821</v>
+        <v>1124.586679619321</v>
       </c>
       <c r="Q25" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="R25" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="S25" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T25" t="n">
-        <v>3943.531835159805</v>
+        <v>1058.952584597594</v>
       </c>
       <c r="U25" t="n">
-        <v>3943.531835159805</v>
+        <v>769.862242443954</v>
       </c>
       <c r="V25" t="n">
-        <v>3688.847346953919</v>
+        <v>515.1777542380671</v>
       </c>
       <c r="W25" t="n">
-        <v>3399.430176916958</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="X25" t="n">
-        <v>3171.440626018941</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="Y25" t="n">
-        <v>2950.648046875411</v>
+        <v>225.7605842011065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2017.433561660081</v>
+        <v>1856.005837369594</v>
       </c>
       <c r="C26" t="n">
-        <v>1648.471044719669</v>
+        <v>1487.043320429182</v>
       </c>
       <c r="D26" t="n">
-        <v>1290.205346112919</v>
+        <v>1128.777621822432</v>
       </c>
       <c r="E26" t="n">
-        <v>904.4170935146744</v>
+        <v>742.9893692241876</v>
       </c>
       <c r="F26" t="n">
-        <v>493.4311887250669</v>
+        <v>332.0034644345801</v>
       </c>
       <c r="G26" t="n">
-        <v>78.87063670319611</v>
+        <v>332.0034644345801</v>
       </c>
       <c r="H26" t="n">
-        <v>78.87063670319611</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I26" t="n">
         <v>78.87063670319611</v>
@@ -6259,19 +6259,19 @@
         <v>3943.531835159805</v>
       </c>
       <c r="U26" t="n">
-        <v>3851.470034574779</v>
+        <v>3690.042310284292</v>
       </c>
       <c r="V26" t="n">
-        <v>3520.407147231208</v>
+        <v>3358.979422940722</v>
       </c>
       <c r="W26" t="n">
-        <v>3167.638491961094</v>
+        <v>3006.210767670607</v>
       </c>
       <c r="X26" t="n">
-        <v>2794.172733700014</v>
+        <v>2632.745009409527</v>
       </c>
       <c r="Y26" t="n">
-        <v>2404.033401724203</v>
+        <v>2242.605677433716</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>904.5043975433666</v>
       </c>
       <c r="M27" t="n">
-        <v>986.8725574380486</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N27" t="n">
-        <v>1530.21217420872</v>
+        <v>1963.136721510769</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.0419783449</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.801691655902</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="Q27" t="n">
         <v>2558.709283247168</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3722.739256016275</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="C28" t="n">
-        <v>3553.803073088368</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="D28" t="n">
-        <v>3403.686433676033</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="E28" t="n">
-        <v>3403.686433676033</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="F28" t="n">
-        <v>3268.119374264556</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="G28" t="n">
-        <v>3100.646157519076</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H28" t="n">
-        <v>2956.470500213707</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="I28" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J28" t="n">
-        <v>2893.783938995557</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K28" t="n">
-        <v>3018.24156305216</v>
+        <v>231.06208070166</v>
       </c>
       <c r="L28" t="n">
-        <v>3207.410270286582</v>
+        <v>420.2307879360819</v>
       </c>
       <c r="M28" t="n">
-        <v>3410.120431669547</v>
+        <v>622.9409493190469</v>
       </c>
       <c r="N28" t="n">
-        <v>3615.868124400261</v>
+        <v>828.6886420497617</v>
       </c>
       <c r="O28" t="n">
-        <v>3785.596330948522</v>
+        <v>998.4168485980224</v>
       </c>
       <c r="P28" t="n">
-        <v>3911.766161969821</v>
+        <v>1124.586679619321</v>
       </c>
       <c r="Q28" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="R28" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="S28" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T28" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="U28" t="n">
-        <v>3943.531835159805</v>
+        <v>997.8517933419713</v>
       </c>
       <c r="V28" t="n">
-        <v>3943.531835159805</v>
+        <v>743.1673051360845</v>
       </c>
       <c r="W28" t="n">
-        <v>3943.531835159805</v>
+        <v>453.7501350991238</v>
       </c>
       <c r="X28" t="n">
-        <v>3943.531835159805</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="Y28" t="n">
-        <v>3722.739256016275</v>
+        <v>225.7605842011065</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2109.495362245105</v>
+        <v>1856.005837369594</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.532845304694</v>
+        <v>1487.043320429182</v>
       </c>
       <c r="D29" t="n">
-        <v>1382.267146697943</v>
+        <v>1128.777621822432</v>
       </c>
       <c r="E29" t="n">
-        <v>996.4788940996989</v>
+        <v>742.9893692241876</v>
       </c>
       <c r="F29" t="n">
-        <v>585.4929893100914</v>
+        <v>332.0034644345801</v>
       </c>
       <c r="G29" t="n">
-        <v>170.9324372882206</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H29" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I29" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J29" t="n">
-        <v>310.3318922270718</v>
+        <v>310.3318922270719</v>
       </c>
       <c r="K29" t="n">
-        <v>707.9708323625631</v>
+        <v>707.9708323625632</v>
       </c>
       <c r="L29" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M29" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.80689066217</v>
       </c>
       <c r="N29" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014714</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848994</v>
       </c>
       <c r="P29" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q29" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367603</v>
       </c>
       <c r="R29" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159805</v>
       </c>
       <c r="S29" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159805</v>
       </c>
       <c r="T29" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159805</v>
       </c>
       <c r="U29" t="n">
-        <v>3943.531835159804</v>
+        <v>3690.042310284292</v>
       </c>
       <c r="V29" t="n">
-        <v>3612.468947816233</v>
+        <v>3358.979422940722</v>
       </c>
       <c r="W29" t="n">
-        <v>3259.700292546119</v>
+        <v>3006.210767670607</v>
       </c>
       <c r="X29" t="n">
-        <v>2886.234534285039</v>
+        <v>2632.745009409527</v>
       </c>
       <c r="Y29" t="n">
-        <v>2496.095202309227</v>
+        <v>2242.605677433716</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H30" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I30" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J30" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K30" t="n">
-        <v>479.5207778288762</v>
+        <v>479.5207778288763</v>
       </c>
       <c r="L30" t="n">
         <v>904.5043975433666</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.2724597576482</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="C31" t="n">
-        <v>639.2724597576482</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="D31" t="n">
-        <v>639.2724597576482</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="E31" t="n">
-        <v>491.3593661752551</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="F31" t="n">
-        <v>480.9398919140563</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="G31" t="n">
-        <v>313.466675168576</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H31" t="n">
-        <v>169.2910178632074</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="I31" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J31" t="n">
         <v>106.6044566450581</v>
@@ -6648,25 +6648,25 @@
         <v>1156.352352809306</v>
       </c>
       <c r="S31" t="n">
-        <v>1156.352352809306</v>
+        <v>968.6681169050225</v>
       </c>
       <c r="T31" t="n">
-        <v>1156.352352809306</v>
+        <v>747.8826045973335</v>
       </c>
       <c r="U31" t="n">
-        <v>867.2620106556656</v>
+        <v>458.7922624436935</v>
       </c>
       <c r="V31" t="n">
-        <v>867.2620106556656</v>
+        <v>204.1077742378066</v>
       </c>
       <c r="W31" t="n">
-        <v>867.2620106556656</v>
+        <v>204.1077742378066</v>
       </c>
       <c r="X31" t="n">
-        <v>639.2724597576482</v>
+        <v>204.1077742378066</v>
       </c>
       <c r="Y31" t="n">
-        <v>639.2724597576482</v>
+        <v>78.87063670319611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2039.695507643014</v>
+        <v>1652.268923831605</v>
       </c>
       <c r="C32" t="n">
-        <v>1670.732990702602</v>
+        <v>1652.268923831605</v>
       </c>
       <c r="D32" t="n">
-        <v>1312.467292095851</v>
+        <v>1294.003225224854</v>
       </c>
       <c r="E32" t="n">
-        <v>926.6790394976072</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F32" t="n">
-        <v>515.6931347079997</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G32" t="n">
-        <v>101.1325826861288</v>
+        <v>393.4737063214163</v>
       </c>
       <c r="H32" t="n">
         <v>101.1325826861288</v>
@@ -6730,22 +6730,22 @@
         <v>3943.531835159805</v>
       </c>
       <c r="T32" t="n">
-        <v>3943.531835159805</v>
+        <v>3739.794921621816</v>
       </c>
       <c r="U32" t="n">
-        <v>3873.731980557712</v>
+        <v>3486.305396746303</v>
       </c>
       <c r="V32" t="n">
-        <v>3542.669093214141</v>
+        <v>3155.242509402732</v>
       </c>
       <c r="W32" t="n">
-        <v>3189.900437944027</v>
+        <v>2802.473854132618</v>
       </c>
       <c r="X32" t="n">
-        <v>2816.434679682947</v>
+        <v>2429.008095871538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2426.295347707136</v>
+        <v>2038.868763895726</v>
       </c>
     </row>
     <row r="33">
@@ -6791,10 +6791,10 @@
         <v>1419.797104740098</v>
       </c>
       <c r="N33" t="n">
-        <v>1722.119765799986</v>
+        <v>1963.136721510769</v>
       </c>
       <c r="O33" t="n">
-        <v>2196.949569936166</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P33" t="n">
         <v>2558.709283247168</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7665472923975</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="C34" t="n">
-        <v>390.8303643644906</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="D34" t="n">
-        <v>390.8303643644906</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="E34" t="n">
-        <v>390.8303643644906</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="F34" t="n">
-        <v>390.519510754045</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="G34" t="n">
-        <v>223.0462940085647</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H34" t="n">
         <v>78.87063670319611</v>
@@ -6882,28 +6882,28 @@
         <v>1156.352352809306</v>
       </c>
       <c r="R34" t="n">
-        <v>1076.846440344055</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="S34" t="n">
-        <v>1076.846440344055</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T34" t="n">
-        <v>1076.846440344055</v>
+        <v>935.5668405016165</v>
       </c>
       <c r="U34" t="n">
-        <v>787.7560981904148</v>
+        <v>935.5668405016165</v>
       </c>
       <c r="V34" t="n">
-        <v>787.7560981904148</v>
+        <v>680.8823522957297</v>
       </c>
       <c r="W34" t="n">
-        <v>787.7560981904148</v>
+        <v>391.4651822587691</v>
       </c>
       <c r="X34" t="n">
-        <v>559.7665472923975</v>
+        <v>163.4756313607517</v>
       </c>
       <c r="Y34" t="n">
-        <v>559.7665472923975</v>
+        <v>163.4756313607517</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2332.036631278301</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C35" t="n">
-        <v>1963.074114337889</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D35" t="n">
-        <v>1604.808415731139</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.020163132895</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F35" t="n">
-        <v>808.0342583432871</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G35" t="n">
-        <v>393.4737063214163</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="H35" t="n">
-        <v>101.1325826861288</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I35" t="n">
         <v>78.87063670319611</v>
       </c>
       <c r="J35" t="n">
-        <v>310.3318922270719</v>
+        <v>310.331892227072</v>
       </c>
       <c r="K35" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625634</v>
       </c>
       <c r="L35" t="n">
         <v>1238.178861098889</v>
       </c>
       <c r="M35" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N35" t="n">
         <v>2496.107320014713</v>
@@ -6964,25 +6964,25 @@
         <v>3943.531835159805</v>
       </c>
       <c r="S35" t="n">
-        <v>3943.531835159805</v>
+        <v>3844.906045395662</v>
       </c>
       <c r="T35" t="n">
-        <v>3739.794921621816</v>
+        <v>3844.906045395662</v>
       </c>
       <c r="U35" t="n">
-        <v>3486.305396746303</v>
+        <v>3591.416520520149</v>
       </c>
       <c r="V35" t="n">
-        <v>3155.242509402732</v>
+        <v>3260.353633176578</v>
       </c>
       <c r="W35" t="n">
-        <v>2802.473854132618</v>
+        <v>2907.584977906464</v>
       </c>
       <c r="X35" t="n">
-        <v>2802.473854132618</v>
+        <v>2534.119219645384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2718.636471342423</v>
+        <v>2143.979887669572</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2326.375867125699</v>
+        <v>941.5533152130619</v>
       </c>
       <c r="C36" t="n">
-        <v>2151.922837844572</v>
+        <v>767.1002859319349</v>
       </c>
       <c r="D36" t="n">
-        <v>2002.988428183321</v>
+        <v>618.1658762706836</v>
       </c>
       <c r="E36" t="n">
-        <v>1843.750973177865</v>
+        <v>458.9284212652282</v>
       </c>
       <c r="F36" t="n">
-        <v>1697.216415204751</v>
+        <v>312.3938632921131</v>
       </c>
       <c r="G36" t="n">
-        <v>1561.127204684733</v>
+        <v>176.3046527720956</v>
       </c>
       <c r="H36" t="n">
-        <v>1473.270507706356</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I36" t="n">
-        <v>1463.693188615834</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J36" t="n">
-        <v>1582.732079780518</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K36" t="n">
-        <v>1582.732079780518</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L36" t="n">
-        <v>2007.715699495009</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M36" t="n">
-        <v>2371.695109350686</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N36" t="n">
-        <v>2915.034726121357</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O36" t="n">
-        <v>3389.864530257537</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P36" t="n">
-        <v>3751.624243568539</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="Q36" t="n">
-        <v>3943.531835159805</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="R36" t="n">
-        <v>3943.531835159805</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="S36" t="n">
-        <v>3819.18132872604</v>
+        <v>2434.358776813403</v>
       </c>
       <c r="T36" t="n">
-        <v>3627.642295886035</v>
+        <v>2242.819743973398</v>
       </c>
       <c r="U36" t="n">
-        <v>3399.592468076198</v>
+        <v>2014.769916163561</v>
       </c>
       <c r="V36" t="n">
-        <v>3164.440359844456</v>
+        <v>1779.617807931818</v>
       </c>
       <c r="W36" t="n">
-        <v>2910.203003116254</v>
+        <v>1525.380451203617</v>
       </c>
       <c r="X36" t="n">
-        <v>2702.351502910721</v>
+        <v>1317.528950998084</v>
       </c>
       <c r="Y36" t="n">
-        <v>2494.591204145767</v>
+        <v>1109.76865223313</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3034.986301981603</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="C37" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="D37" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="E37" t="n">
-        <v>2866.050119053696</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="F37" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="G37" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H37" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="I37" t="n">
-        <v>2866.050119053696</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="J37" t="n">
-        <v>2893.783938995557</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K37" t="n">
-        <v>3018.24156305216</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L37" t="n">
-        <v>3207.410270286582</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M37" t="n">
-        <v>3410.120431669547</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N37" t="n">
-        <v>3615.868124400261</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O37" t="n">
-        <v>3785.596330948522</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P37" t="n">
-        <v>3911.766161969821</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q37" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="R37" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="S37" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T37" t="n">
-        <v>3943.531835159805</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="U37" t="n">
-        <v>3943.531835159805</v>
+        <v>997.8517933419713</v>
       </c>
       <c r="V37" t="n">
-        <v>3688.847346953919</v>
+        <v>743.1673051360845</v>
       </c>
       <c r="W37" t="n">
-        <v>3399.430176916958</v>
+        <v>453.7501350991238</v>
       </c>
       <c r="X37" t="n">
-        <v>3171.440626018941</v>
+        <v>225.7605842011065</v>
       </c>
       <c r="Y37" t="n">
-        <v>3034.986301981603</v>
+        <v>225.7605842011065</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1895.214133273498</v>
+        <v>1940.242974131585</v>
       </c>
       <c r="C38" t="n">
-        <v>1526.251616333086</v>
+        <v>1571.280457191173</v>
       </c>
       <c r="D38" t="n">
-        <v>1167.985917726335</v>
+        <v>1213.014758584422</v>
       </c>
       <c r="E38" t="n">
-        <v>782.1976651280911</v>
+        <v>827.2265059861782</v>
       </c>
       <c r="F38" t="n">
-        <v>371.2117603384836</v>
+        <v>416.2406011965706</v>
       </c>
       <c r="G38" t="n">
-        <v>371.2117603384836</v>
+        <v>393.4737063214162</v>
       </c>
       <c r="H38" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I38" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J38" t="n">
-        <v>310.3318922270718</v>
+        <v>310.331892227071</v>
       </c>
       <c r="K38" t="n">
-        <v>707.9708323625631</v>
+        <v>707.9708323625625</v>
       </c>
       <c r="L38" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M38" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.80689066217</v>
       </c>
       <c r="N38" t="n">
         <v>2496.107320014713</v>
       </c>
       <c r="O38" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848996</v>
       </c>
       <c r="P38" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q38" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R38" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S38" t="n">
-        <v>3844.90604539566</v>
+        <v>3844.906045395664</v>
       </c>
       <c r="T38" t="n">
-        <v>3641.169131857671</v>
+        <v>3641.169131857674</v>
       </c>
       <c r="U38" t="n">
-        <v>3387.679606982158</v>
+        <v>3387.679606982161</v>
       </c>
       <c r="V38" t="n">
-        <v>3056.616719638587</v>
+        <v>3056.61671963859</v>
       </c>
       <c r="W38" t="n">
-        <v>3045.419063574511</v>
+        <v>2703.848064368476</v>
       </c>
       <c r="X38" t="n">
-        <v>2671.953305313431</v>
+        <v>2330.382306107396</v>
       </c>
       <c r="Y38" t="n">
-        <v>2281.813973337619</v>
+        <v>1940.242974131585</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2326.375867125698</v>
+        <v>941.5533152130619</v>
       </c>
       <c r="C39" t="n">
-        <v>2151.922837844571</v>
+        <v>767.1002859319349</v>
       </c>
       <c r="D39" t="n">
-        <v>2002.98842818332</v>
+        <v>618.1658762706836</v>
       </c>
       <c r="E39" t="n">
-        <v>1843.750973177864</v>
+        <v>458.9284212652282</v>
       </c>
       <c r="F39" t="n">
-        <v>1697.216415204749</v>
+        <v>312.3938632921131</v>
       </c>
       <c r="G39" t="n">
-        <v>1561.127204684732</v>
+        <v>176.3046527720956</v>
       </c>
       <c r="H39" t="n">
-        <v>1473.270507706355</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I39" t="n">
-        <v>1463.693188615832</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J39" t="n">
-        <v>1463.693188615832</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K39" t="n">
-        <v>1745.304438576828</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L39" t="n">
-        <v>1856.402402153953</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M39" t="n">
-        <v>2371.695109350684</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N39" t="n">
-        <v>2915.034726121356</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O39" t="n">
-        <v>3389.864530257536</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P39" t="n">
-        <v>3751.624243568538</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="Q39" t="n">
-        <v>3943.531835159804</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="R39" t="n">
-        <v>3943.531835159804</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="S39" t="n">
-        <v>3819.181328726038</v>
+        <v>2434.358776813403</v>
       </c>
       <c r="T39" t="n">
-        <v>3627.642295886033</v>
+        <v>2242.819743973398</v>
       </c>
       <c r="U39" t="n">
-        <v>3399.592468076197</v>
+        <v>2014.769916163561</v>
       </c>
       <c r="V39" t="n">
-        <v>3164.440359844454</v>
+        <v>1779.617807931818</v>
       </c>
       <c r="W39" t="n">
-        <v>2910.203003116253</v>
+        <v>1525.380451203617</v>
       </c>
       <c r="X39" t="n">
-        <v>2702.35150291072</v>
+        <v>1317.528950998084</v>
       </c>
       <c r="Y39" t="n">
-        <v>2494.591204145766</v>
+        <v>1109.76865223313</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3881.975237685101</v>
+        <v>232.1002222541827</v>
       </c>
       <c r="C40" t="n">
-        <v>3713.039054757194</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="D40" t="n">
-        <v>3562.922415344858</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="E40" t="n">
-        <v>3415.009321762465</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="F40" t="n">
-        <v>3268.119374264555</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="G40" t="n">
-        <v>3100.646157519074</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H40" t="n">
-        <v>2956.470500213706</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I40" t="n">
-        <v>2866.050119053694</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J40" t="n">
-        <v>2893.783938995556</v>
+        <v>106.6044566450582</v>
       </c>
       <c r="K40" t="n">
-        <v>3018.241563052158</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L40" t="n">
-        <v>3207.41027028658</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M40" t="n">
-        <v>3410.120431669545</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N40" t="n">
-        <v>3615.86812440026</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O40" t="n">
-        <v>3785.596330948521</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P40" t="n">
-        <v>3911.76616196982</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q40" t="n">
-        <v>3943.531835159804</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="R40" t="n">
-        <v>3943.531835159804</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="S40" t="n">
-        <v>3943.531835159804</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T40" t="n">
-        <v>3943.531835159804</v>
+        <v>935.566840501617</v>
       </c>
       <c r="U40" t="n">
-        <v>3943.531835159804</v>
+        <v>935.566840501617</v>
       </c>
       <c r="V40" t="n">
-        <v>3943.531835159804</v>
+        <v>680.8823522957301</v>
       </c>
       <c r="W40" t="n">
-        <v>3943.531835159804</v>
+        <v>680.8823522957301</v>
       </c>
       <c r="X40" t="n">
-        <v>3943.531835159804</v>
+        <v>452.8928013977128</v>
       </c>
       <c r="Y40" t="n">
-        <v>3943.531835159804</v>
+        <v>232.1002222541827</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1602.87300963821</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C41" t="n">
-        <v>1233.910492697798</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D41" t="n">
-        <v>875.644794091048</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8565414928037</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F41" t="n">
-        <v>78.87063670319611</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G41" t="n">
-        <v>78.87063670319611</v>
+        <v>393.4737063214162</v>
       </c>
       <c r="H41" t="n">
-        <v>78.87063670319611</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I41" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J41" t="n">
-        <v>310.3318922270719</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K41" t="n">
-        <v>707.9708323625632</v>
+        <v>707.970832362565</v>
       </c>
       <c r="L41" t="n">
-        <v>1238.178861098889</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M41" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848996</v>
       </c>
       <c r="P41" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.999142367603</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R41" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S41" t="n">
-        <v>3894.135920966411</v>
+        <v>3844.906045395664</v>
       </c>
       <c r="T41" t="n">
-        <v>3690.399007428421</v>
+        <v>3844.906045395664</v>
       </c>
       <c r="U41" t="n">
-        <v>3436.909482552908</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.846595209337</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W41" t="n">
-        <v>2753.077939939223</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X41" t="n">
-        <v>2379.612181678143</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y41" t="n">
-        <v>1989.472849702332</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H42" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I42" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J42" t="n">
         <v>197.909527867881</v>
       </c>
       <c r="K42" t="n">
-        <v>197.909527867881</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L42" t="n">
-        <v>622.8931475823713</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M42" t="n">
-        <v>1138.185854779102</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N42" t="n">
-        <v>1530.21217420872</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.0419783449</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.801691655902</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="Q42" t="n">
         <v>2558.709283247168</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.806819631103</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="C43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="D43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="E43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="F43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="G43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I43" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J43" t="n">
-        <v>106.6044566450581</v>
+        <v>106.6044566450582</v>
       </c>
       <c r="K43" t="n">
-        <v>231.06208070166</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L43" t="n">
-        <v>420.2307879360819</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M43" t="n">
-        <v>622.9409493190469</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N43" t="n">
-        <v>828.6886420497617</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O43" t="n">
-        <v>998.4168485980224</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P43" t="n">
-        <v>1124.586679619321</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q43" t="n">
         <v>1156.352352809306</v>
@@ -7596,25 +7596,25 @@
         <v>1156.352352809306</v>
       </c>
       <c r="S43" t="n">
-        <v>1156.352352809306</v>
+        <v>1140.052187997701</v>
       </c>
       <c r="T43" t="n">
-        <v>935.5668405016165</v>
+        <v>1140.052187997701</v>
       </c>
       <c r="U43" t="n">
-        <v>646.4764983479765</v>
+        <v>850.961845844061</v>
       </c>
       <c r="V43" t="n">
-        <v>646.4764983479765</v>
+        <v>596.2773576381742</v>
       </c>
       <c r="W43" t="n">
-        <v>646.4764983479765</v>
+        <v>306.8601876012135</v>
       </c>
       <c r="X43" t="n">
-        <v>646.4764983479765</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="Y43" t="n">
-        <v>425.6839192044464</v>
+        <v>78.87063670319614</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2187.068724713163</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C44" t="n">
-        <v>1818.106207772752</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D44" t="n">
-        <v>1459.840509166001</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E44" t="n">
-        <v>1074.052256567757</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F44" t="n">
-        <v>663.0663517781493</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G44" t="n">
-        <v>248.5057997562785</v>
+        <v>393.4737063214163</v>
       </c>
       <c r="H44" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I44" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J44" t="n">
-        <v>310.3318922270718</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K44" t="n">
-        <v>707.9708323625631</v>
+        <v>707.9708323625646</v>
       </c>
       <c r="L44" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.17886109889</v>
       </c>
       <c r="M44" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N44" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014714</v>
       </c>
       <c r="O44" t="n">
-        <v>3083.612510848992</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P44" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q44" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367604</v>
       </c>
       <c r="R44" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="S44" t="n">
-        <v>3943.531835159804</v>
+        <v>3844.906045395663</v>
       </c>
       <c r="T44" t="n">
-        <v>3943.531835159804</v>
+        <v>3641.169131857673</v>
       </c>
       <c r="U44" t="n">
-        <v>3690.042310284291</v>
+        <v>3641.169131857673</v>
       </c>
       <c r="V44" t="n">
-        <v>3690.042310284291</v>
+        <v>3444.870884873617</v>
       </c>
       <c r="W44" t="n">
-        <v>3337.273655014177</v>
+        <v>3092.102229603503</v>
       </c>
       <c r="X44" t="n">
-        <v>2963.807896753097</v>
+        <v>2718.636471342423</v>
       </c>
       <c r="Y44" t="n">
-        <v>2573.668564777285</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H45" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I45" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J45" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K45" t="n">
-        <v>197.9095278678809</v>
+        <v>479.5207778288763</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5798502413176</v>
+        <v>904.5043975433666</v>
       </c>
       <c r="M45" t="n">
-        <v>986.8725574380486</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N45" t="n">
-        <v>1530.21217420872</v>
+        <v>1963.136721510769</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.0419783449</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.801691655902</v>
+        <v>2558.709283247168</v>
       </c>
       <c r="Q45" t="n">
         <v>2558.709283247168</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>753.9113088355357</v>
+        <v>397.9234590434388</v>
       </c>
       <c r="C46" t="n">
-        <v>584.9751259076288</v>
+        <v>228.9872761155319</v>
       </c>
       <c r="D46" t="n">
-        <v>584.9751259076288</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="E46" t="n">
-        <v>584.9751259076288</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="F46" t="n">
-        <v>480.9398919140563</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="G46" t="n">
-        <v>313.466675168576</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="H46" t="n">
-        <v>169.2910178632074</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="I46" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J46" t="n">
         <v>106.6044566450581</v>
@@ -7836,22 +7836,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T46" t="n">
-        <v>1156.352352809306</v>
+        <v>1028.354053915226</v>
       </c>
       <c r="U46" t="n">
-        <v>1156.352352809306</v>
+        <v>1028.354053915226</v>
       </c>
       <c r="V46" t="n">
-        <v>1156.352352809306</v>
+        <v>1028.354053915226</v>
       </c>
       <c r="W46" t="n">
-        <v>1156.352352809306</v>
+        <v>1028.354053915226</v>
       </c>
       <c r="X46" t="n">
-        <v>1156.352352809306</v>
+        <v>800.3645030172087</v>
       </c>
       <c r="Y46" t="n">
-        <v>935.5597736657754</v>
+        <v>579.5719238736785</v>
       </c>
     </row>
   </sheetData>
@@ -22555,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.7574771839087</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778757926</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.86547352390266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7684683149572</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>89.09306974517361</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.86859442887686</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>7.756023399657067</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>37.68451922341178</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>169.7162981627189</v>
       </c>
       <c r="G14" t="n">
-        <v>88.9713188183502</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>90.70473944880575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>77.96415732084118</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23712,13 +23712,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>84.51310991088988</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>289.9110058020843</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.13707806897949</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>34.47359541775947</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493163</v>
+        <v>56.46192994813111</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>25.79097039495548</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.01197484460981</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,19 +24183,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>289.4177123989346</v>
+        <v>122.029517252207</v>
       </c>
       <c r="I23" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>97.63953186650193</v>
       </c>
       <c r="T23" t="n">
-        <v>110.5583618234339</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.08003163843938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.7984845780255</v>
@@ -24417,10 +24417,10 @@
         <v>185.8073935452402</v>
       </c>
       <c r="T25" t="n">
-        <v>218.5776571846122</v>
+        <v>122.1518866550178</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H26" t="n">
-        <v>289.4177123989346</v>
+        <v>60.85553946796787</v>
       </c>
       <c r="I26" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>201.6995444026096</v>
       </c>
       <c r="U26" t="n">
-        <v>159.8134470475821</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>11.20965920556927</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>89.5161773484112</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1994387321036</v>
+        <v>129.2838848594427</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.8527735706853</v>
       </c>
       <c r="H29" t="n">
-        <v>198.2765298197604</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I29" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>201.6995444026096</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>135.1057685043444</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>89.5161773484112</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>78.71085334059829</v>
       </c>
       <c r="S31" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>94.59988719283038</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>307.6971386012219</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>97.63953186650193</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>181.8527735706857</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.1133029485901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>82.03953986704548</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I34" t="n">
         <v>89.5161773484112</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.71085334059829</v>
       </c>
       <c r="S34" t="n">
         <v>185.8073935452402</v>
       </c>
       <c r="T34" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>279.4923054371875</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.2389296937609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.7984845780255</v>
@@ -25332,7 +25332,7 @@
         <v>142.7339007323149</v>
       </c>
       <c r="I37" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S37" t="n">
         <v>185.8073935452402</v>
@@ -25368,7 +25368,7 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1994387321036</v>
+        <v>129.2838848594423</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.49487255512997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4149465016521</v>
+        <v>387.8757205752493</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>338.1552892139773</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.8909486819811</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>15.54953140315118</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S40" t="n">
         <v>185.8073935452402</v>
       </c>
       <c r="T40" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1994387321036</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.4149465016521</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.7375768150412</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.1577593659857</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.733651604327378</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>142.7339007323149</v>
       </c>
       <c r="I43" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S43" t="n">
-        <v>185.8073935452402</v>
+        <v>169.6702303817511</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>121.4789009763831</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>133.4169939559197</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>42.42616636929449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>89.5161773484112</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>185.8073935452402</v>
       </c>
       <c r="T46" t="n">
-        <v>218.5776571846122</v>
+        <v>91.85934127947333</v>
       </c>
       <c r="U46" t="n">
         <v>286.1994387321036</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>789698.3456849994</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>789698.3456849991</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>789698.3456849994</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857775</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857778</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857775</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857779</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857778</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857752.6306857776</v>
+        <v>857752.6306857779</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="E2" t="n">
+        <v>361945.0751056243</v>
+      </c>
+      <c r="F2" t="n">
         <v>361945.0751056244</v>
       </c>
-      <c r="C2" t="n">
-        <v>361945.0751056244</v>
-      </c>
-      <c r="D2" t="n">
-        <v>361945.0751056246</v>
-      </c>
-      <c r="E2" t="n">
-        <v>361945.0751056244</v>
-      </c>
-      <c r="F2" t="n">
-        <v>361945.0751056245</v>
-      </c>
       <c r="G2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="H2" t="n">
         <v>361945.0751056243</v>
@@ -26340,22 +26340,22 @@
         <v>393136.6223976478</v>
       </c>
       <c r="K2" t="n">
-        <v>393136.6223976477</v>
+        <v>393136.6223976479</v>
       </c>
       <c r="L2" t="n">
         <v>393136.6223976478</v>
       </c>
       <c r="M2" t="n">
+        <v>393136.6223976477</v>
+      </c>
+      <c r="N2" t="n">
         <v>393136.6223976478</v>
-      </c>
-      <c r="N2" t="n">
-        <v>393136.6223976476</v>
       </c>
       <c r="O2" t="n">
         <v>393136.6223976478</v>
       </c>
       <c r="P2" t="n">
-        <v>393136.6223976476</v>
+        <v>393136.6223976478</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>135972.4039225092</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.599055394763127e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061234</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061234</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
@@ -26450,13 +26450,13 @@
         <v>664.5935624199349</v>
       </c>
       <c r="M4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="N4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="O4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="P4" t="n">
         <v>664.5935624199349</v>
@@ -26496,7 +26496,7 @@
         <v>86446.95261279386</v>
       </c>
       <c r="K5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279386</v>
       </c>
       <c r="L5" t="n">
         <v>86446.95261279386</v>
@@ -26505,13 +26505,13 @@
         <v>86446.95261279386</v>
       </c>
       <c r="N5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="O5" t="n">
-        <v>86446.95261279386</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="P5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279387</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1075318.258172368</v>
+        <v>-1078702.456967682</v>
       </c>
       <c r="C6" t="n">
-        <v>253426.4875552249</v>
+        <v>250042.2887599099</v>
       </c>
       <c r="D6" t="n">
-        <v>253426.4875552253</v>
+        <v>250042.2887599101</v>
       </c>
       <c r="E6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770552</v>
       </c>
       <c r="F6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770554</v>
       </c>
       <c r="G6" t="n">
-        <v>287054.0875552252</v>
+        <v>282980.0921770553</v>
       </c>
       <c r="H6" t="n">
-        <v>287054.0875552247</v>
+        <v>282980.0921770551</v>
       </c>
       <c r="I6" t="n">
-        <v>170052.6722999248</v>
+        <v>167396.474525938</v>
       </c>
       <c r="J6" t="n">
-        <v>88493.87382515639</v>
+        <v>85837.6760511699</v>
       </c>
       <c r="K6" t="n">
-        <v>306025.0762224339</v>
+        <v>303368.8784484473</v>
       </c>
       <c r="L6" t="n">
-        <v>306025.0762224341</v>
+        <v>303368.8784484472</v>
       </c>
       <c r="M6" t="n">
-        <v>306025.0762224341</v>
+        <v>303368.878448447</v>
       </c>
       <c r="N6" t="n">
-        <v>306025.0762224339</v>
+        <v>303368.8784484471</v>
       </c>
       <c r="O6" t="n">
-        <v>306025.0762224341</v>
+        <v>303368.8784484473</v>
       </c>
       <c r="P6" t="n">
-        <v>306025.0762224339</v>
+        <v>303368.8784484472</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26816,7 +26816,7 @@
         <v>985.8829587899513</v>
       </c>
       <c r="K4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899513</v>
       </c>
       <c r="L4" t="n">
         <v>985.8829587899513</v>
@@ -26825,13 +26825,13 @@
         <v>985.8829587899513</v>
       </c>
       <c r="N4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="O4" t="n">
-        <v>985.8829587899513</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="P4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899515</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>154.4815033876587</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>290.9502639294496</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="5">
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.0275966668317</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>202.990312552551</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,10 +31837,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31849,28 +31849,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>247.0789308734191</v>
       </c>
       <c r="K24" t="n">
-        <v>178.8457766008359</v>
+        <v>422.2972470157684</v>
       </c>
       <c r="L24" t="n">
         <v>567.8307633298645</v>
@@ -32806,7 +32806,7 @@
         <v>622.2223092284648</v>
       </c>
       <c r="P24" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286922</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,7 +33034,7 @@
         <v>567.8307633298645</v>
       </c>
       <c r="M27" t="n">
-        <v>225.3341954317981</v>
+        <v>662.6317179591205</v>
       </c>
       <c r="N27" t="n">
         <v>680.1696078112843</v>
@@ -33043,10 +33043,10 @@
         <v>622.2223092284648</v>
       </c>
       <c r="P27" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286922</v>
       </c>
       <c r="Q27" t="n">
-        <v>333.8278261984118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33511,13 +33511,13 @@
         <v>662.6317179591205</v>
       </c>
       <c r="N33" t="n">
-        <v>436.7181373963521</v>
+        <v>680.1696078112843</v>
       </c>
       <c r="O33" t="n">
         <v>622.2223092284648</v>
       </c>
       <c r="P33" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286922</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H35" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I35" t="n">
         <v>188.4365630473026</v>
@@ -33660,37 +33660,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K35" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L35" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M35" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N35" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O35" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P35" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q35" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R35" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S35" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T35" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H36" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I36" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J36" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L36" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M36" t="n">
-        <v>509.7900034732074</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N36" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O36" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P36" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q36" t="n">
-        <v>333.8278261984118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T36" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I37" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J37" t="n">
         <v>155.0093809766305</v>
@@ -33821,31 +33821,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L37" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M37" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N37" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O37" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P37" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q37" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R37" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S37" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T37" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U37" t="n">
         <v>0.1195906243872681</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H38" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I38" t="n">
         <v>188.4365630473026</v>
@@ -33897,37 +33897,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K38" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L38" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M38" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N38" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O38" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P38" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q38" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R38" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S38" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T38" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H39" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I39" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>247.0789308734191</v>
       </c>
       <c r="K39" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L39" t="n">
-        <v>250.7745450092939</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M39" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N39" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O39" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P39" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q39" t="n">
-        <v>333.8278261984118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T39" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I40" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J40" t="n">
         <v>155.0093809766305</v>
@@ -34058,31 +34058,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L40" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M40" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N40" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O40" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P40" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q40" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R40" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S40" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T40" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U40" t="n">
         <v>0.1195906243872681</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H41" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I41" t="n">
         <v>188.4365630473026</v>
@@ -34134,37 +34134,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K41" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L41" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M41" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N41" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O41" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P41" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q41" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R41" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S41" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T41" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H42" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I42" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J42" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M42" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N42" t="n">
-        <v>527.3278933253715</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O42" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P42" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q42" t="n">
-        <v>333.8278261984118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T42" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I43" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J43" t="n">
         <v>155.0093809766305</v>
@@ -34295,31 +34295,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L43" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M43" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N43" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O43" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P43" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q43" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R43" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S43" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T43" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1195906243872681</v>
@@ -34450,10 +34450,10 @@
         <v>247.0789308734191</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>422.2972470157684</v>
       </c>
       <c r="L45" t="n">
-        <v>414.9890488439516</v>
+        <v>567.8307633298645</v>
       </c>
       <c r="M45" t="n">
         <v>662.6317179591205</v>
@@ -34465,10 +34465,10 @@
         <v>622.2223092284648</v>
       </c>
       <c r="P45" t="n">
-        <v>499.3882592436246</v>
+        <v>255.9367888286922</v>
       </c>
       <c r="Q45" t="n">
-        <v>333.8278261984118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35497,19 +35497,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K24" t="n">
-        <v>41.00433762647693</v>
+        <v>284.4558080414095</v>
       </c>
       <c r="L24" t="n">
         <v>429.2763835499903</v>
@@ -36454,7 +36454,7 @@
         <v>479.6260647840204</v>
       </c>
       <c r="P24" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143619</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>429.2763835499903</v>
       </c>
       <c r="M27" t="n">
-        <v>83.20016150977978</v>
+        <v>520.4976840371021</v>
       </c>
       <c r="N27" t="n">
         <v>548.827895727951</v>
@@ -36691,10 +36691,10 @@
         <v>479.6260647840204</v>
       </c>
       <c r="P27" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143619</v>
       </c>
       <c r="Q27" t="n">
-        <v>193.8460521123903</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>520.4976840371021</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3764253130187</v>
+        <v>548.827895727951</v>
       </c>
       <c r="O33" t="n">
         <v>479.6260647840204</v>
       </c>
       <c r="P33" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143619</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K35" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L35" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M35" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N35" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O35" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P35" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q35" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R35" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L36" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M36" t="n">
-        <v>367.6559695511891</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N36" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O36" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P36" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q36" t="n">
-        <v>193.8460521123903</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K37" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L37" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M37" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N37" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O37" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P37" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K38" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L38" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M38" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N38" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O38" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P38" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q38" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R38" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>120.2413042067524</v>
       </c>
       <c r="K39" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L39" t="n">
-        <v>112.2201652294197</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M39" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N39" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O39" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P39" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q39" t="n">
-        <v>193.8460521123903</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K40" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L40" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M40" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N40" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O40" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P40" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K41" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L41" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M41" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N41" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O41" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P41" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q41" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R41" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M42" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N42" t="n">
-        <v>395.9861812420382</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O42" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P42" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q42" t="n">
-        <v>193.8460521123903</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K43" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L43" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M43" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N43" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O43" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P43" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>284.4558080414095</v>
       </c>
       <c r="L45" t="n">
-        <v>276.4346690640774</v>
+        <v>429.2763835499903</v>
       </c>
       <c r="M45" t="n">
         <v>520.4976840371021</v>
@@ -38113,10 +38113,10 @@
         <v>479.6260647840204</v>
       </c>
       <c r="P45" t="n">
-        <v>365.4138518292944</v>
+        <v>121.9623814143619</v>
       </c>
       <c r="Q45" t="n">
-        <v>193.8460521123903</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926182.1899071914</v>
+        <v>951129.8528506136</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3754556.370457225</v>
+        <v>4976754.983908111</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10057875.89654494</v>
+        <v>9493494.951020049</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482832</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>78.78083674901936</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386317</v>
+        <v>93.26432376799994</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>166.1727706865543</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38.40636597973747</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>91.61745183476951</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>6.284770091046616</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>47.90418220988079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>386.0531312245766</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>89.86676627008424</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>107.070495690909</v>
+        <v>121.1566550598653</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.1597475789926</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.4333847267171</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>111.8048680106007</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>93.3588207914797</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>307.1669016484335</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>96.32693285396928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.5522128412688</v>
+        <v>90.39866052803926</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>354.4597957053223</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>141.4558507036724</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>87.62154955555292</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>329.6538924972796</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.4149465016521</v>
       </c>
       <c r="H23" t="n">
-        <v>167.3881951467276</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U23" t="n">
         <v>250.9546296267578</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I24" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.5211147488959</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>96.42577052959437</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H26" t="n">
-        <v>228.5621729309667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.03932652310334</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.3837403045242</v>
       </c>
       <c r="U26" t="n">
         <v>250.9546296267578</v>
@@ -2654,7 +2654,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I27" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>84.08250431546792</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U28" t="n">
-        <v>156.9155538726609</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>228.5621729309667</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>91.14118257917733</v>
       </c>
       <c r="I29" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I30" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>143.9532326718149</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>218.5776571846122</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.9847661592644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>74.23323147103989</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I32" t="n">
-        <v>22.03932652310334</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>107.4364021272742</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I33" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>83.75894471098005</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>234.7282752902732</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.2415362262931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I35" t="n">
-        <v>22.03932652310328</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.63953186650191</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>129.4757286503778</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>156.9155538726613</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>74.60645622858787</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>22.53922592640283</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H38" t="n">
         <v>289.4177123989346</v>
       </c>
       <c r="I38" t="n">
-        <v>22.03932652310328</v>
+        <v>22.03932652310326</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.63953186650191</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>107.4364021272742</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I39" t="n">
-        <v>9.481545899617473</v>
+        <v>9.481545899617458</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>151.6972896954767</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>24.6514782876091</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.63953186650191</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.796870260772153</v>
+        <v>107.4364021272742</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.13716316348902</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.13716316348905</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H44" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>22.03932652310334</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V44" t="n">
-        <v>194.3352645142153</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>204.3851650853689</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>23.26916136791361</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>126.7183159051389</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4436,25 +4436,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4521,19 +4521,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>691.4327488694903</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>691.4327488694903</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
         <v>312.3844025601599</v>
@@ -4640,10 +4640,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4670,28 +4670,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.3064255026253</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>105.3064255026253</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3064255026253</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596504</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757124</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V7" t="n">
-        <v>576.3720603698256</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W7" t="n">
-        <v>286.954890332865</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X7" t="n">
-        <v>286.954890332865</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.954890332865</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179758</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>985.1133520179758</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>574.1274472283683</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>159.0549970733647</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4822,7 +4822,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>261.7901267683572</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>114.9001792704468</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.504630229388</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.504630229388</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>1253.238931622638</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>867.4506790243936</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>456.464774234786</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.10447029351</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.3669689068675</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C13" t="n">
-        <v>342.3669689068675</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D13" t="n">
-        <v>342.3669689068675</v>
+        <v>601.8341834779419</v>
       </c>
       <c r="E13" t="n">
-        <v>342.3669689068675</v>
+        <v>453.9210898955488</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3669689068675</v>
+        <v>453.9210898955488</v>
       </c>
       <c r="G13" t="n">
-        <v>174.6641322815865</v>
+        <v>286.2182532702677</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
@@ -5232,19 +5232,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>342.3669689068675</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>342.3669689068675</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>342.3669689068675</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1517.887535471215</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C14" t="n">
-        <v>1148.925018530804</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.925018530804</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E14" t="n">
-        <v>763.1367659325592</v>
+        <v>383.6942522904088</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>383.6942522904088</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>383.6942522904088</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5323,7 +5323,7 @@
         <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.487375535337</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.4482993600903</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>718.1223384639945</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>718.1223384639945</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="U16" t="n">
-        <v>718.1223384639945</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V16" t="n">
-        <v>463.4378502581077</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W16" t="n">
-        <v>463.4378502581077</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X16" t="n">
-        <v>235.4482993600903</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y16" t="n">
-        <v>235.4482993600903</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2047.583838282732</v>
+        <v>2255.174438931364</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.62132134232</v>
+        <v>1886.211921990952</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5518,16 +5518,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y17" t="n">
-        <v>2434.183678346854</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.4459618444147</v>
+        <v>326.7600776712411</v>
       </c>
       <c r="C19" t="n">
-        <v>349.5097789165078</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="D19" t="n">
-        <v>199.3931395041721</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="E19" t="n">
-        <v>199.3931395041721</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="F19" t="n">
-        <v>199.3931395041721</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="X19" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.0944266746544</v>
+        <v>508.4085425014808</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2288.135186201105</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C20" t="n">
-        <v>1919.172669260694</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D20" t="n">
-        <v>1560.906970653943</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E20" t="n">
-        <v>1175.118718055699</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F20" t="n">
-        <v>764.1328132660913</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>2678.274518176917</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y20" t="n">
-        <v>2288.135186201105</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W22" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X22" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y22" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2208.774492639708</v>
+        <v>1553.643134067461</v>
       </c>
       <c r="C23" t="n">
-        <v>1839.811975699296</v>
+        <v>1184.680617127049</v>
       </c>
       <c r="D23" t="n">
-        <v>1481.546277092546</v>
+        <v>826.4149185202989</v>
       </c>
       <c r="E23" t="n">
-        <v>1095.758024494302</v>
+        <v>493.4311887250669</v>
       </c>
       <c r="F23" t="n">
-        <v>684.7721197046942</v>
+        <v>493.4311887250669</v>
       </c>
       <c r="G23" t="n">
-        <v>270.2115676828234</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="H23" t="n">
-        <v>101.1325826861288</v>
+        <v>78.87063670319611</v>
       </c>
       <c r="I23" t="n">
         <v>78.87063670319611</v>
       </c>
       <c r="J23" t="n">
-        <v>310.3318922270719</v>
+        <v>310.331892227072</v>
       </c>
       <c r="K23" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625634</v>
       </c>
       <c r="L23" t="n">
         <v>1238.178861098889</v>
       </c>
       <c r="M23" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N23" t="n">
         <v>2496.107320014713</v>
@@ -6007,7 +6007,7 @@
         <v>3083.612510848994</v>
       </c>
       <c r="P23" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q23" t="n">
         <v>3852.999142367603</v>
@@ -6016,25 +6016,25 @@
         <v>3943.531835159805</v>
       </c>
       <c r="S23" t="n">
-        <v>3943.531835159805</v>
+        <v>3844.906045395662</v>
       </c>
       <c r="T23" t="n">
-        <v>3943.531835159805</v>
+        <v>3641.169131857672</v>
       </c>
       <c r="U23" t="n">
-        <v>3690.042310284292</v>
+        <v>3387.679606982159</v>
       </c>
       <c r="V23" t="n">
-        <v>3358.979422940722</v>
+        <v>3056.616719638589</v>
       </c>
       <c r="W23" t="n">
-        <v>3358.979422940722</v>
+        <v>2703.848064368474</v>
       </c>
       <c r="X23" t="n">
-        <v>2985.513664679642</v>
+        <v>2330.382306107394</v>
       </c>
       <c r="Y23" t="n">
-        <v>2595.37433270383</v>
+        <v>1940.242974131583</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>197.909527867881</v>
       </c>
       <c r="K24" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L24" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M24" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O24" t="n">
         <v>2437.96652564695</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>225.7605842011065</v>
+        <v>523.7903171958353</v>
       </c>
       <c r="C25" t="n">
-        <v>225.7605842011065</v>
+        <v>523.7903171958353</v>
       </c>
       <c r="D25" t="n">
-        <v>225.7605842011065</v>
+        <v>373.6736777834996</v>
       </c>
       <c r="E25" t="n">
         <v>225.7605842011065</v>
@@ -6150,22 +6150,22 @@
         <v>106.6044566450581</v>
       </c>
       <c r="K25" t="n">
-        <v>231.06208070166</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L25" t="n">
-        <v>420.2307879360819</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M25" t="n">
-        <v>622.9409493190469</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N25" t="n">
-        <v>828.6886420497617</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O25" t="n">
-        <v>998.4168485980224</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P25" t="n">
-        <v>1124.586679619321</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q25" t="n">
         <v>1156.352352809306</v>
@@ -6177,22 +6177,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T25" t="n">
-        <v>1058.952584597594</v>
+        <v>935.566840501617</v>
       </c>
       <c r="U25" t="n">
-        <v>769.862242443954</v>
+        <v>935.566840501617</v>
       </c>
       <c r="V25" t="n">
-        <v>515.1777542380671</v>
+        <v>680.8823522957301</v>
       </c>
       <c r="W25" t="n">
-        <v>225.7605842011065</v>
+        <v>680.8823522957301</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7605842011065</v>
+        <v>680.8823522957301</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.7605842011065</v>
+        <v>680.8823522957301</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1856.005837369594</v>
+        <v>1628.709602853406</v>
       </c>
       <c r="C26" t="n">
-        <v>1487.043320429182</v>
+        <v>1259.747085912994</v>
       </c>
       <c r="D26" t="n">
-        <v>1128.777621822432</v>
+        <v>901.4813873062437</v>
       </c>
       <c r="E26" t="n">
-        <v>742.9893692241876</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="F26" t="n">
-        <v>332.0034644345801</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0034644345801</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="H26" t="n">
-        <v>101.1325826861288</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I26" t="n">
         <v>78.87063670319611</v>
       </c>
       <c r="J26" t="n">
-        <v>310.3318922270719</v>
+        <v>310.331892227072</v>
       </c>
       <c r="K26" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625634</v>
       </c>
       <c r="L26" t="n">
         <v>1238.178861098889</v>
       </c>
       <c r="M26" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N26" t="n">
         <v>2496.107320014713</v>
@@ -6244,7 +6244,7 @@
         <v>3083.612510848994</v>
       </c>
       <c r="P26" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q26" t="n">
         <v>3852.999142367603</v>
@@ -6253,25 +6253,25 @@
         <v>3943.531835159805</v>
       </c>
       <c r="S26" t="n">
-        <v>3943.531835159805</v>
+        <v>3844.906045395662</v>
       </c>
       <c r="T26" t="n">
-        <v>3943.531835159805</v>
+        <v>3716.235600643617</v>
       </c>
       <c r="U26" t="n">
-        <v>3690.042310284292</v>
+        <v>3462.746075768104</v>
       </c>
       <c r="V26" t="n">
-        <v>3358.979422940722</v>
+        <v>3131.683188424533</v>
       </c>
       <c r="W26" t="n">
-        <v>3006.210767670607</v>
+        <v>2778.914533154419</v>
       </c>
       <c r="X26" t="n">
-        <v>2632.745009409527</v>
+        <v>2405.448774893339</v>
       </c>
       <c r="Y26" t="n">
-        <v>2242.605677433716</v>
+        <v>2015.309442917528</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>197.909527867881</v>
       </c>
       <c r="K27" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L27" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M27" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O27" t="n">
         <v>2437.96652564695</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
       <c r="C28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
       <c r="D28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
       <c r="E28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
       <c r="F28" t="n">
         <v>78.87063670319611</v>
@@ -6387,22 +6387,22 @@
         <v>106.6044566450581</v>
       </c>
       <c r="K28" t="n">
-        <v>231.06208070166</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L28" t="n">
-        <v>420.2307879360819</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M28" t="n">
-        <v>622.9409493190469</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N28" t="n">
-        <v>828.6886420497617</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O28" t="n">
-        <v>998.4168485980224</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P28" t="n">
-        <v>1124.586679619321</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q28" t="n">
         <v>1156.352352809306</v>
@@ -6414,22 +6414,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T28" t="n">
-        <v>1156.352352809306</v>
+        <v>935.566840501617</v>
       </c>
       <c r="U28" t="n">
-        <v>997.8517933419713</v>
+        <v>646.476498347977</v>
       </c>
       <c r="V28" t="n">
-        <v>743.1673051360845</v>
+        <v>391.7920101420901</v>
       </c>
       <c r="W28" t="n">
-        <v>453.7501350991238</v>
+        <v>391.7920101420901</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.7605842011065</v>
+        <v>163.8024592440728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1856.005837369594</v>
+        <v>2109.495362245108</v>
       </c>
       <c r="C29" t="n">
-        <v>1487.043320429182</v>
+        <v>1740.532845304697</v>
       </c>
       <c r="D29" t="n">
-        <v>1128.777621822432</v>
+        <v>1382.267146697946</v>
       </c>
       <c r="E29" t="n">
-        <v>742.9893692241876</v>
+        <v>996.4788940997021</v>
       </c>
       <c r="F29" t="n">
-        <v>332.0034644345801</v>
+        <v>585.4929893100946</v>
       </c>
       <c r="G29" t="n">
-        <v>101.1325826861288</v>
+        <v>170.9324372882238</v>
       </c>
       <c r="H29" t="n">
-        <v>101.1325826861288</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I29" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J29" t="n">
-        <v>310.3318922270719</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K29" t="n">
-        <v>707.9708323625632</v>
+        <v>707.970832362565</v>
       </c>
       <c r="L29" t="n">
-        <v>1238.178861098889</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M29" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N29" t="n">
-        <v>2496.107320014714</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P29" t="n">
-        <v>3550.533597954121</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q29" t="n">
-        <v>3852.999142367603</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R29" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S29" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T29" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U29" t="n">
-        <v>3690.042310284292</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="V29" t="n">
-        <v>3358.979422940722</v>
+        <v>3612.468947816236</v>
       </c>
       <c r="W29" t="n">
-        <v>3006.210767670607</v>
+        <v>3259.700292546122</v>
       </c>
       <c r="X29" t="n">
-        <v>2632.745009409527</v>
+        <v>2886.234534285042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2242.605677433716</v>
+        <v>2496.09520230923</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H30" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I30" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J30" t="n">
         <v>197.909527867881</v>
       </c>
       <c r="K30" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L30" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M30" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O30" t="n">
         <v>2437.96652564695</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.87063670319611</v>
+        <v>707.5772896035996</v>
       </c>
       <c r="C31" t="n">
-        <v>78.87063670319611</v>
+        <v>538.6411066756928</v>
       </c>
       <c r="D31" t="n">
-        <v>78.87063670319611</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="E31" t="n">
-        <v>78.87063670319611</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="F31" t="n">
-        <v>78.87063670319611</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G31" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H31" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I31" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J31" t="n">
-        <v>106.6044566450581</v>
+        <v>106.6044566450582</v>
       </c>
       <c r="K31" t="n">
-        <v>231.06208070166</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L31" t="n">
-        <v>420.2307879360819</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M31" t="n">
-        <v>622.9409493190469</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N31" t="n">
-        <v>828.6886420497617</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O31" t="n">
-        <v>998.4168485980224</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P31" t="n">
-        <v>1124.586679619321</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q31" t="n">
         <v>1156.352352809306</v>
@@ -6648,25 +6648,25 @@
         <v>1156.352352809306</v>
       </c>
       <c r="S31" t="n">
-        <v>968.6681169050225</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T31" t="n">
-        <v>747.8826045973335</v>
+        <v>935.566840501617</v>
       </c>
       <c r="U31" t="n">
-        <v>458.7922624436935</v>
+        <v>935.566840501617</v>
       </c>
       <c r="V31" t="n">
-        <v>204.1077742378066</v>
+        <v>935.566840501617</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1077742378066</v>
+        <v>935.566840501617</v>
       </c>
       <c r="X31" t="n">
-        <v>204.1077742378066</v>
+        <v>707.5772896035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.87063670319611</v>
+        <v>707.5772896035996</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1652.268923831605</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C32" t="n">
-        <v>1652.268923831605</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.003225224854</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E32" t="n">
         <v>1219.020163132895</v>
@@ -6691,19 +6691,19 @@
         <v>808.0342583432871</v>
       </c>
       <c r="G32" t="n">
-        <v>393.4737063214163</v>
+        <v>393.4737063214162</v>
       </c>
       <c r="H32" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I32" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J32" t="n">
-        <v>310.3318922270719</v>
+        <v>310.331892227071</v>
       </c>
       <c r="K32" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625625</v>
       </c>
       <c r="L32" t="n">
         <v>1238.178861098889</v>
@@ -6715,37 +6715,37 @@
         <v>2496.107320014713</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848996</v>
       </c>
       <c r="P32" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q32" t="n">
-        <v>3852.999142367603</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R32" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S32" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T32" t="n">
-        <v>3739.794921621816</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U32" t="n">
-        <v>3486.305396746303</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="V32" t="n">
-        <v>3155.242509402732</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W32" t="n">
-        <v>2802.473854132618</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X32" t="n">
-        <v>2429.008095871538</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y32" t="n">
-        <v>2038.868763895726</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H33" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I33" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J33" t="n">
         <v>197.909527867881</v>
       </c>
       <c r="K33" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L33" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M33" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O33" t="n">
         <v>2437.96652564695</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.4756313607517</v>
+        <v>691.2635339413157</v>
       </c>
       <c r="C34" t="n">
-        <v>163.4756313607517</v>
+        <v>691.2635339413157</v>
       </c>
       <c r="D34" t="n">
-        <v>163.4756313607517</v>
+        <v>541.1468945289799</v>
       </c>
       <c r="E34" t="n">
-        <v>163.4756313607517</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="F34" t="n">
-        <v>163.4756313607517</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G34" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H34" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I34" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J34" t="n">
-        <v>106.6044566450581</v>
+        <v>106.6044566450582</v>
       </c>
       <c r="K34" t="n">
-        <v>231.06208070166</v>
+        <v>231.0620807016601</v>
       </c>
       <c r="L34" t="n">
-        <v>420.2307879360819</v>
+        <v>420.230787936082</v>
       </c>
       <c r="M34" t="n">
-        <v>622.9409493190469</v>
+        <v>622.9409493190471</v>
       </c>
       <c r="N34" t="n">
-        <v>828.6886420497617</v>
+        <v>828.6886420497621</v>
       </c>
       <c r="O34" t="n">
-        <v>998.4168485980224</v>
+        <v>998.4168485980229</v>
       </c>
       <c r="P34" t="n">
-        <v>1124.586679619321</v>
+        <v>1124.586679619322</v>
       </c>
       <c r="Q34" t="n">
         <v>1156.352352809306</v>
@@ -6888,22 +6888,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T34" t="n">
-        <v>935.5668405016165</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="U34" t="n">
-        <v>935.5668405016165</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="V34" t="n">
-        <v>680.8823522957297</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="W34" t="n">
-        <v>391.4651822587691</v>
+        <v>919.253084839333</v>
       </c>
       <c r="X34" t="n">
-        <v>163.4756313607517</v>
+        <v>691.2635339413157</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.4756313607517</v>
+        <v>691.2635339413157</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2039.695507643014</v>
+        <v>2309.774685295368</v>
       </c>
       <c r="C35" t="n">
-        <v>1670.732990702602</v>
+        <v>1940.812168354957</v>
       </c>
       <c r="D35" t="n">
-        <v>1312.467292095851</v>
+        <v>1582.546469748206</v>
       </c>
       <c r="E35" t="n">
-        <v>926.6790394976072</v>
+        <v>1196.758217149962</v>
       </c>
       <c r="F35" t="n">
-        <v>515.6931347079995</v>
+        <v>785.7723123603544</v>
       </c>
       <c r="G35" t="n">
-        <v>101.1325826861287</v>
+        <v>371.2117603384836</v>
       </c>
       <c r="H35" t="n">
-        <v>101.1325826861287</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I35" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J35" t="n">
-        <v>310.331892227072</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K35" t="n">
-        <v>707.9708323625634</v>
+        <v>707.9708323625641</v>
       </c>
       <c r="L35" t="n">
-        <v>1238.178861098889</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M35" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N35" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O35" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P35" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.999142367603</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R35" t="n">
-        <v>3943.531835159805</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S35" t="n">
-        <v>3844.906045395662</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T35" t="n">
-        <v>3844.906045395662</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U35" t="n">
-        <v>3591.416520520149</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="V35" t="n">
-        <v>3260.353633176578</v>
+        <v>3812.748270866496</v>
       </c>
       <c r="W35" t="n">
-        <v>2907.584977906464</v>
+        <v>3459.979615596382</v>
       </c>
       <c r="X35" t="n">
-        <v>2534.119219645384</v>
+        <v>3086.513857335302</v>
       </c>
       <c r="Y35" t="n">
-        <v>2143.979887669572</v>
+        <v>2696.37452535949</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H36" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I36" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J36" t="n">
         <v>197.909527867881</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.7605842011065</v>
+        <v>860.1997168692226</v>
       </c>
       <c r="C37" t="n">
-        <v>225.7605842011065</v>
+        <v>691.2635339413157</v>
       </c>
       <c r="D37" t="n">
-        <v>225.7605842011065</v>
+        <v>541.1468945289799</v>
       </c>
       <c r="E37" t="n">
-        <v>225.7605842011065</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="F37" t="n">
-        <v>78.87063670319611</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G37" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H37" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I37" t="n">
-        <v>78.87063670319611</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J37" t="n">
-        <v>106.6044566450581</v>
+        <v>106.6044566450582</v>
       </c>
       <c r="K37" t="n">
         <v>231.0620807016601</v>
@@ -7128,19 +7128,19 @@
         <v>1156.352352809306</v>
       </c>
       <c r="U37" t="n">
-        <v>997.8517933419713</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="V37" t="n">
-        <v>743.1673051360845</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="W37" t="n">
-        <v>453.7501350991238</v>
+        <v>1080.992296012753</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7605842011065</v>
+        <v>1080.992296012753</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.7605842011065</v>
+        <v>860.1997168692226</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1940.242974131585</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.280457191173</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D38" t="n">
-        <v>1213.014758584422</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E38" t="n">
-        <v>827.2265059861782</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F38" t="n">
-        <v>416.2406011965706</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G38" t="n">
         <v>393.4737063214162</v>
       </c>
       <c r="H38" t="n">
-        <v>101.1325826861288</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I38" t="n">
         <v>78.87063670319614</v>
       </c>
       <c r="J38" t="n">
-        <v>310.331892227071</v>
+        <v>310.3318922270721</v>
       </c>
       <c r="K38" t="n">
-        <v>707.9708323625625</v>
+        <v>707.9708323625637</v>
       </c>
       <c r="L38" t="n">
-        <v>1238.178861098889</v>
+        <v>1238.17886109889</v>
       </c>
       <c r="M38" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N38" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O38" t="n">
-        <v>3083.612510848996</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P38" t="n">
-        <v>3550.533597954122</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q38" t="n">
         <v>3852.999142367605</v>
@@ -7201,25 +7201,25 @@
         <v>3943.531835159807</v>
       </c>
       <c r="S38" t="n">
-        <v>3844.906045395664</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T38" t="n">
-        <v>3641.169131857674</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U38" t="n">
-        <v>3387.679606982161</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="V38" t="n">
-        <v>3056.61671963859</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W38" t="n">
-        <v>2703.848064368476</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X38" t="n">
-        <v>2330.382306107396</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y38" t="n">
-        <v>1940.242974131585</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H39" t="n">
-        <v>88.44795579371885</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I39" t="n">
         <v>78.87063670319614</v>
       </c>
       <c r="J39" t="n">
-        <v>197.909527867881</v>
+        <v>197.9095278678811</v>
       </c>
       <c r="K39" t="n">
-        <v>479.5207778288765</v>
+        <v>479.5207778288766</v>
       </c>
       <c r="L39" t="n">
-        <v>904.504397543367</v>
+        <v>904.5043975433672</v>
       </c>
       <c r="M39" t="n">
-        <v>1419.797104740098</v>
+        <v>1419.797104740099</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.13672151077</v>
+        <v>1963.136721510771</v>
       </c>
       <c r="O39" t="n">
-        <v>2437.96652564695</v>
+        <v>2437.966525646951</v>
       </c>
       <c r="P39" t="n">
         <v>2558.709283247168</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>232.1002222541827</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="C40" t="n">
-        <v>78.87063670319614</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="D40" t="n">
-        <v>78.87063670319614</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="E40" t="n">
-        <v>78.87063670319614</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="F40" t="n">
-        <v>78.87063670319614</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G40" t="n">
         <v>78.87063670319614</v>
@@ -7338,16 +7338,16 @@
         <v>231.0620807016601</v>
       </c>
       <c r="L40" t="n">
-        <v>420.230787936082</v>
+        <v>420.2307879360822</v>
       </c>
       <c r="M40" t="n">
-        <v>622.9409493190471</v>
+        <v>622.9409493190474</v>
       </c>
       <c r="N40" t="n">
-        <v>828.6886420497621</v>
+        <v>828.6886420497623</v>
       </c>
       <c r="O40" t="n">
-        <v>998.4168485980229</v>
+        <v>998.4168485980231</v>
       </c>
       <c r="P40" t="n">
         <v>1124.586679619322</v>
@@ -7362,22 +7362,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T40" t="n">
-        <v>935.566840501617</v>
+        <v>935.5668405016174</v>
       </c>
       <c r="U40" t="n">
-        <v>935.566840501617</v>
+        <v>935.5668405016174</v>
       </c>
       <c r="V40" t="n">
-        <v>680.8823522957301</v>
+        <v>680.8823522957306</v>
       </c>
       <c r="W40" t="n">
-        <v>680.8823522957301</v>
+        <v>655.9818691769335</v>
       </c>
       <c r="X40" t="n">
-        <v>452.8928013977128</v>
+        <v>427.9923182789162</v>
       </c>
       <c r="Y40" t="n">
-        <v>232.1002222541827</v>
+        <v>427.9923182789162</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>78.87063670319614</v>
       </c>
       <c r="J41" t="n">
-        <v>310.3318922270728</v>
+        <v>310.3318922270723</v>
       </c>
       <c r="K41" t="n">
-        <v>707.970832362565</v>
+        <v>707.9708323625641</v>
       </c>
       <c r="L41" t="n">
-        <v>1238.178861098891</v>
+        <v>1238.17886109889</v>
       </c>
       <c r="M41" t="n">
         <v>1859.806890662171</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.107320014715</v>
+        <v>2496.107320014714</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.612510848996</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P41" t="n">
-        <v>3550.533597954122</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q41" t="n">
         <v>3852.999142367605</v>
@@ -7438,10 +7438,10 @@
         <v>3943.531835159807</v>
       </c>
       <c r="S41" t="n">
-        <v>3844.906045395664</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T41" t="n">
-        <v>3844.906045395664</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U41" t="n">
         <v>3835.010216849429</v>
@@ -7596,25 +7596,25 @@
         <v>1156.352352809306</v>
       </c>
       <c r="S43" t="n">
-        <v>1140.052187997701</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="T43" t="n">
-        <v>1140.052187997701</v>
+        <v>1156.352352809306</v>
       </c>
       <c r="U43" t="n">
-        <v>850.961845844061</v>
+        <v>867.262010655666</v>
       </c>
       <c r="V43" t="n">
-        <v>596.2773576381742</v>
+        <v>612.5775224497792</v>
       </c>
       <c r="W43" t="n">
-        <v>306.8601876012135</v>
+        <v>323.1603524128186</v>
       </c>
       <c r="X43" t="n">
-        <v>78.87063670319614</v>
+        <v>95.17080151480121</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.87063670319614</v>
+        <v>95.17080151480121</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2332.036631278301</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C44" t="n">
-        <v>1963.074114337889</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D44" t="n">
-        <v>1604.808415731139</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.020163132895</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F44" t="n">
-        <v>808.0342583432871</v>
+        <v>515.6931347079997</v>
       </c>
       <c r="G44" t="n">
-        <v>393.4737063214163</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H44" t="n">
         <v>101.1325826861288</v>
@@ -7654,13 +7654,13 @@
         <v>707.9708323625646</v>
       </c>
       <c r="L44" t="n">
-        <v>1238.17886109889</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M44" t="n">
-        <v>1859.806890662171</v>
+        <v>1859.806890662172</v>
       </c>
       <c r="N44" t="n">
-        <v>2496.107320014714</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O44" t="n">
         <v>3083.612510848995</v>
@@ -7675,25 +7675,25 @@
         <v>3943.531835159806</v>
       </c>
       <c r="S44" t="n">
-        <v>3844.906045395663</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="T44" t="n">
-        <v>3641.169131857673</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="U44" t="n">
-        <v>3641.169131857673</v>
+        <v>3690.042310284293</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.870884873617</v>
+        <v>3358.979422940723</v>
       </c>
       <c r="W44" t="n">
-        <v>3092.102229603503</v>
+        <v>3006.210767670608</v>
       </c>
       <c r="X44" t="n">
-        <v>2718.636471342423</v>
+        <v>2632.745009409528</v>
       </c>
       <c r="Y44" t="n">
-        <v>2718.636471342423</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>397.9234590434388</v>
+        <v>102.3748401051291</v>
       </c>
       <c r="C46" t="n">
-        <v>228.9872761155319</v>
+        <v>102.3748401051291</v>
       </c>
       <c r="D46" t="n">
-        <v>78.87063670319613</v>
+        <v>102.3748401051291</v>
       </c>
       <c r="E46" t="n">
         <v>78.87063670319613</v>
@@ -7836,22 +7836,22 @@
         <v>1156.352352809306</v>
       </c>
       <c r="T46" t="n">
-        <v>1028.354053915226</v>
+        <v>935.5668405016165</v>
       </c>
       <c r="U46" t="n">
-        <v>1028.354053915226</v>
+        <v>646.4764983479765</v>
       </c>
       <c r="V46" t="n">
-        <v>1028.354053915226</v>
+        <v>391.7920101420897</v>
       </c>
       <c r="W46" t="n">
-        <v>1028.354053915226</v>
+        <v>102.3748401051291</v>
       </c>
       <c r="X46" t="n">
-        <v>800.3645030172087</v>
+        <v>102.3748401051291</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.5719238736785</v>
+        <v>102.3748401051291</v>
       </c>
     </row>
   </sheetData>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>125.3203295840948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,16 +22792,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>240.7032750551571</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>158.873319555828</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>379.953168565007</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>118.1216260491474</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>24.86859442887686</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>296.3711723859693</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.68451922341178</v>
+        <v>23.59835985445544</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.7162981627189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>22.17437966060334</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>77.96415732084118</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>126.1901284846895</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>47.5161399722495</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>289.9110058020843</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.47359541775947</v>
+        <v>75.62714773098897</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>56.46192994813111</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>25.79097039495548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.59028865006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>52.27647757498215</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>122.029517252207</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.31086543304144</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>142.7339007323149</v>
       </c>
       <c r="I25" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S25" t="n">
         <v>185.8073935452402</v>
       </c>
       <c r="T25" t="n">
-        <v>122.1518866550178</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4149465016521</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>60.85553946796787</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>201.6995444026096</v>
+        <v>74.31580409808539</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>61.33854370746333</v>
       </c>
       <c r="G28" t="n">
         <v>165.7984845780255</v>
@@ -24621,7 +24621,7 @@
         <v>142.7339007323149</v>
       </c>
       <c r="I28" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S28" t="n">
         <v>185.8073935452402</v>
       </c>
       <c r="T28" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>129.2838848594427</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.8527735706853</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>289.4177123989346</v>
+        <v>198.2765298197573</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T29" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.662240346397482</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I31" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.59988719283038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>307.6971386012219</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>220.3158563428607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>82.03953986704548</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I34" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S34" t="n">
         <v>185.8073935452402</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U34" t="n">
         <v>286.1994387321036</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>51.79472304631778</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>279.4923054371875</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T35" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>198.2765298197571</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.7339007323149</v>
@@ -25368,19 +25368,19 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U37" t="n">
-        <v>129.2838848594423</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>211.9165421080031</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8757205752493</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>97.6395318665019</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.3158563428607</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>15.54953140315118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I40" t="n">
-        <v>89.51617734841119</v>
+        <v>89.51617734841118</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.71085334059828</v>
+        <v>78.71085334059826</v>
       </c>
       <c r="S40" t="n">
-        <v>185.8073935452402</v>
+        <v>185.8073935452401</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>261.8715200489819</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T41" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U41" t="n">
-        <v>241.1577593659857</v>
+        <v>143.5182274994836</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6948170184483</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>78.71085334059828</v>
       </c>
       <c r="S43" t="n">
-        <v>169.6702303817511</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T43" t="n">
         <v>218.5776571846122</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>97.63953186650193</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>133.4169939559197</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>181.8527735706847</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.1648012786556</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,22 +26076,22 @@
         <v>185.8073935452402</v>
       </c>
       <c r="T46" t="n">
-        <v>91.85934127947333</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.3456849988</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.3456849993</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857752.6306857775</v>
+        <v>857752.6306857778</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857752.6306857775</v>
+        <v>857752.6306857778</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857752.6306857775</v>
+        <v>857752.6306857781</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857752.6306857778</v>
+        <v>857752.6306857779</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857752.6306857775</v>
+        <v>857752.630685778</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857752.6306857779</v>
+        <v>857752.6306857776</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="E2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="F2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="G2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="H2" t="n">
         <v>361945.0751056243</v>
@@ -26346,7 +26346,7 @@
         <v>393136.6223976478</v>
       </c>
       <c r="M2" t="n">
-        <v>393136.6223976477</v>
+        <v>393136.6223976479</v>
       </c>
       <c r="N2" t="n">
         <v>393136.6223976478</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135972.4039225092</v>
+        <v>135972.4039225096</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.599055394763127e-10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>584.646989006123</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
         <v>584.646989006123</v>
@@ -26435,25 +26435,25 @@
         <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="J4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="K4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="L4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199351</v>
       </c>
       <c r="M4" t="n">
         <v>664.5935624199351</v>
       </c>
       <c r="N4" t="n">
-        <v>664.5935624199351</v>
+        <v>664.5935624199352</v>
       </c>
       <c r="O4" t="n">
         <v>664.5935624199351</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26496,16 +26496,16 @@
         <v>86446.95261279386</v>
       </c>
       <c r="K5" t="n">
-        <v>86446.95261279386</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="L5" t="n">
-        <v>86446.95261279386</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="M5" t="n">
-        <v>86446.95261279386</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="N5" t="n">
-        <v>86446.95261279389</v>
+        <v>86446.9526127939</v>
       </c>
       <c r="O5" t="n">
         <v>86446.95261279389</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078702.456967682</v>
+        <v>-1075725.657710184</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599099</v>
+        <v>253019.0880174079</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.2887599101</v>
+        <v>253019.088017408</v>
       </c>
       <c r="E6" t="n">
-        <v>282980.0921770552</v>
+        <v>286646.688017408</v>
       </c>
       <c r="F6" t="n">
-        <v>282980.0921770554</v>
+        <v>286646.6880174081</v>
       </c>
       <c r="G6" t="n">
-        <v>282980.0921770553</v>
+        <v>286646.688017408</v>
       </c>
       <c r="H6" t="n">
-        <v>282980.0921770551</v>
+        <v>286646.688017408</v>
       </c>
       <c r="I6" t="n">
-        <v>167396.474525938</v>
+        <v>169787.0525225258</v>
       </c>
       <c r="J6" t="n">
-        <v>85837.6760511699</v>
+        <v>88228.25404775757</v>
       </c>
       <c r="K6" t="n">
-        <v>303368.8784484473</v>
+        <v>305759.4564450353</v>
       </c>
       <c r="L6" t="n">
-        <v>303368.8784484472</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="M6" t="n">
-        <v>303368.878448447</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="N6" t="n">
-        <v>303368.8784484471</v>
+        <v>305759.4564450351</v>
       </c>
       <c r="O6" t="n">
-        <v>303368.8784484473</v>
+        <v>305759.4564450355</v>
       </c>
       <c r="P6" t="n">
-        <v>303368.8784484472</v>
+        <v>305759.4564450354</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26816,13 +26816,13 @@
         <v>985.8829587899513</v>
       </c>
       <c r="K4" t="n">
-        <v>985.8829587899513</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="L4" t="n">
-        <v>985.8829587899513</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="M4" t="n">
-        <v>985.8829587899513</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="N4" t="n">
         <v>985.8829587899518</v>
@@ -26977,28 +26977,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>126.0613140105932</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>126.0613140105927</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>154.4815033876587</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022939</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>290.9502639294496</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>108.0275966668317</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>202.990312552551</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H23" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I23" t="n">
         <v>188.4365630473026</v>
@@ -32712,37 +32712,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K23" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L23" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M23" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N23" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O23" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P23" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q23" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R23" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S23" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T23" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H24" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I24" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J24" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K24" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L24" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M24" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N24" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O24" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P24" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T24" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I25" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J25" t="n">
         <v>155.0093809766305</v>
@@ -32873,31 +32873,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L25" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M25" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N25" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O25" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P25" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q25" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R25" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S25" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T25" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1195906243872681</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H26" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I26" t="n">
         <v>188.4365630473026</v>
@@ -32949,37 +32949,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K26" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L26" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M26" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N26" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O26" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P26" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q26" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R26" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S26" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T26" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H27" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I27" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J27" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K27" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L27" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M27" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N27" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O27" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P27" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T27" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I28" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J28" t="n">
         <v>155.0093809766305</v>
@@ -33110,31 +33110,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L28" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M28" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N28" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O28" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P28" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q28" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R28" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S28" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T28" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U28" t="n">
         <v>0.1195906243872681</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H29" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I29" t="n">
         <v>188.4365630473026</v>
@@ -33186,37 +33186,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K29" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L29" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M29" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N29" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O29" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P29" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q29" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R29" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S29" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T29" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H30" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I30" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J30" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K30" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L30" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M30" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N30" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O30" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P30" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T30" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I31" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J31" t="n">
         <v>155.0093809766305</v>
@@ -33347,31 +33347,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L31" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M31" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N31" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O31" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P31" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q31" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R31" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S31" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T31" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U31" t="n">
         <v>0.1195906243872681</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H32" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I32" t="n">
         <v>188.4365630473026</v>
@@ -33423,37 +33423,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K32" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L32" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M32" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N32" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O32" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P32" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q32" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R32" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S32" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T32" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H33" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I33" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J33" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K33" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L33" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M33" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N33" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O33" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P33" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T33" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I34" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J34" t="n">
         <v>155.0093809766305</v>
@@ -33584,31 +33584,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L34" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M34" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N34" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O34" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P34" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q34" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R34" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S34" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T34" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U34" t="n">
         <v>0.1195906243872681</v>
@@ -33888,31 +33888,31 @@
         <v>4.887791013482977</v>
       </c>
       <c r="H38" t="n">
-        <v>50.05708971683254</v>
+        <v>50.05708971683255</v>
       </c>
       <c r="I38" t="n">
-        <v>188.4365630473026</v>
+        <v>188.4365630473027</v>
       </c>
       <c r="J38" t="n">
-        <v>414.8451525306011</v>
+        <v>414.8451525306012</v>
       </c>
       <c r="K38" t="n">
-        <v>621.7453461313356</v>
+        <v>621.7453461313357</v>
       </c>
       <c r="L38" t="n">
-        <v>771.3300803602154</v>
+        <v>771.3300803602156</v>
       </c>
       <c r="M38" t="n">
-        <v>858.2533337962433</v>
+        <v>858.2533337962434</v>
       </c>
       <c r="N38" t="n">
-        <v>872.1407700133018</v>
+        <v>872.140770013302</v>
       </c>
       <c r="O38" t="n">
-        <v>823.5377981229805</v>
+        <v>823.5377981229806</v>
       </c>
       <c r="P38" t="n">
-        <v>702.8704574776193</v>
+        <v>702.8704574776195</v>
       </c>
       <c r="Q38" t="n">
         <v>527.8264418072602</v>
@@ -33927,7 +33927,7 @@
         <v>21.39630516152174</v>
       </c>
       <c r="U38" t="n">
-        <v>0.391023281078638</v>
+        <v>0.3910232810786381</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,31 +33967,31 @@
         <v>2.615198748393276</v>
       </c>
       <c r="H39" t="n">
-        <v>25.25731422790348</v>
+        <v>25.25731422790349</v>
       </c>
       <c r="I39" t="n">
-        <v>90.04083410038253</v>
+        <v>90.04083410038254</v>
       </c>
       <c r="J39" t="n">
-        <v>247.0789308734191</v>
+        <v>247.0789308734192</v>
       </c>
       <c r="K39" t="n">
         <v>422.2972470157686</v>
       </c>
       <c r="L39" t="n">
-        <v>567.8307633298646</v>
+        <v>567.8307633298647</v>
       </c>
       <c r="M39" t="n">
-        <v>662.6317179591206</v>
+        <v>662.6317179591208</v>
       </c>
       <c r="N39" t="n">
-        <v>680.1696078112844</v>
+        <v>680.1696078112845</v>
       </c>
       <c r="O39" t="n">
-        <v>622.222309228465</v>
+        <v>622.2223092284651</v>
       </c>
       <c r="P39" t="n">
-        <v>255.9367888286917</v>
+        <v>255.9367888286908</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>48.57616973441015</v>
+        <v>48.57616973441016</v>
       </c>
       <c r="T39" t="n">
         <v>10.54108618321675</v>
@@ -34046,16 +34046,16 @@
         <v>2.192494780433246</v>
       </c>
       <c r="H40" t="n">
-        <v>19.49327177512469</v>
+        <v>19.4932717751247</v>
       </c>
       <c r="I40" t="n">
-        <v>65.93429757884709</v>
+        <v>65.93429757884711</v>
       </c>
       <c r="J40" t="n">
         <v>155.0093809766305</v>
       </c>
       <c r="K40" t="n">
-        <v>254.7280299448807</v>
+        <v>254.7280299448808</v>
       </c>
       <c r="L40" t="n">
         <v>325.9641785382302</v>
@@ -34064,25 +34064,25 @@
         <v>343.6835227182769</v>
       </c>
       <c r="N40" t="n">
-        <v>335.5114967184805</v>
+        <v>335.5114967184806</v>
       </c>
       <c r="O40" t="n">
         <v>309.8991713288739</v>
       </c>
       <c r="P40" t="n">
-        <v>265.1722778080354</v>
+        <v>265.1722778080355</v>
       </c>
       <c r="Q40" t="n">
         <v>183.5915402051876</v>
       </c>
       <c r="R40" t="n">
-        <v>98.58253803657121</v>
+        <v>98.58253803657122</v>
       </c>
       <c r="S40" t="n">
-        <v>38.2092044917321</v>
+        <v>38.20920449173211</v>
       </c>
       <c r="T40" t="n">
-        <v>9.367932243669323</v>
+        <v>9.367932243669324</v>
       </c>
       <c r="U40" t="n">
         <v>0.1195906243872681</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K23" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L23" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M23" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N23" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O23" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P23" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q23" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R23" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K24" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M24" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N24" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O24" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P24" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K25" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L25" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M25" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N25" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O25" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P25" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K26" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L26" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M26" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N26" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O26" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P26" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q26" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R26" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K27" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L27" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M27" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N27" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O27" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P27" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K28" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L28" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M28" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N28" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O28" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P28" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K29" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L29" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M29" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N29" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O29" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P29" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q29" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R29" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K30" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M30" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N30" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O30" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P30" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K31" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L31" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M31" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O31" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P31" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K32" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L32" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M32" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N32" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O32" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P32" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q32" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R32" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K33" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M33" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N33" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O33" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P33" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.01395953723436</v>
+        <v>28.01395953723438</v>
       </c>
       <c r="K34" t="n">
-        <v>125.7147717743453</v>
+        <v>125.7147717743454</v>
       </c>
       <c r="L34" t="n">
-        <v>191.0795022569918</v>
+        <v>191.0795022569919</v>
       </c>
       <c r="M34" t="n">
         <v>204.7577387706718</v>
       </c>
       <c r="N34" t="n">
-        <v>207.8259522532473</v>
+        <v>207.8259522532474</v>
       </c>
       <c r="O34" t="n">
-        <v>171.442632877031</v>
+        <v>171.4426328770311</v>
       </c>
       <c r="P34" t="n">
-        <v>127.4442737588877</v>
+        <v>127.4442737588878</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.08653857574168</v>
+        <v>32.08653857574171</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7992480039148</v>
+        <v>233.7992480039149</v>
       </c>
       <c r="K38" t="n">
-        <v>401.6554950863551</v>
+        <v>401.6554950863552</v>
       </c>
       <c r="L38" t="n">
-        <v>535.5636653902282</v>
+        <v>535.5636653902284</v>
       </c>
       <c r="M38" t="n">
-        <v>627.9071005689706</v>
+        <v>627.9071005689707</v>
       </c>
       <c r="N38" t="n">
-        <v>642.7277064167108</v>
+        <v>642.727706416711</v>
       </c>
       <c r="O38" t="n">
-        <v>593.4395867012937</v>
+        <v>593.4395867012938</v>
       </c>
       <c r="P38" t="n">
-        <v>471.6374617223498</v>
+        <v>471.63746172235</v>
       </c>
       <c r="Q38" t="n">
         <v>305.5207519328106</v>
       </c>
       <c r="R38" t="n">
-        <v>91.44716443656813</v>
+        <v>91.44716443656819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>120.2413042067524</v>
+        <v>120.2413042067525</v>
       </c>
       <c r="K39" t="n">
         <v>284.4558080414096</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2763835499904</v>
+        <v>429.2763835499905</v>
       </c>
       <c r="M39" t="n">
-        <v>520.4976840371023</v>
+        <v>520.4976840371025</v>
       </c>
       <c r="N39" t="n">
-        <v>548.8278957279512</v>
+        <v>548.8278957279513</v>
       </c>
       <c r="O39" t="n">
-        <v>479.6260647840205</v>
+        <v>479.6260647840206</v>
       </c>
       <c r="P39" t="n">
-        <v>121.9623814143614</v>
+        <v>121.9623814143605</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28.01395953723438</v>
+        <v>28.01395953723441</v>
       </c>
       <c r="K40" t="n">
         <v>125.7147717743454</v>
@@ -37709,7 +37709,7 @@
         <v>191.0795022569919</v>
       </c>
       <c r="M40" t="n">
-        <v>204.7577387706718</v>
+        <v>204.7577387706719</v>
       </c>
       <c r="N40" t="n">
         <v>207.8259522532474</v>
@@ -37721,7 +37721,7 @@
         <v>127.4442737588878</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.08653857574171</v>
+        <v>32.08653857574177</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
